--- a/examples/metrics/classification_report_secteur.xlsx
+++ b/examples/metrics/classification_report_secteur.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9832402234636871</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8934010152284264</v>
+        <v>0.7411167512690355</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.8271954674220964</v>
       </c>
       <c r="E2" t="n">
         <v>197</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9709677419354839</v>
+        <v>0.9967320261437909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9435736677115988</v>
+        <v>0.9561128526645768</v>
       </c>
       <c r="D3" t="n">
-        <v>0.957074721780604</v>
+        <v>0.976</v>
       </c>
       <c r="E3" t="n">
         <v>319</v>
@@ -503,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8831168831168831</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9379310344827586</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>77</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9694323144104804</v>
+        <v>0.9689081706435285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9881305637982196</v>
+        <v>0.9940652818991098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9786921381337252</v>
+        <v>0.9813255217868911</v>
       </c>
       <c r="E5" t="n">
         <v>1348</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9662650602409638</v>
+        <v>0.9691943127962085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9479905437352246</v>
+        <v>0.966903073286052</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9570405727923628</v>
+        <v>0.9680473372781064</v>
       </c>
       <c r="E6" t="n">
         <v>423</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9844961240310077</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8552188552188552</v>
+        <v>0.8720538720538721</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9153153153153153</v>
+        <v>0.9200710479573713</v>
       </c>
       <c r="E7" t="n">
         <v>297</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.9765100671140939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9628378378378378</v>
+        <v>0.9831081081081081</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9644670050761421</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="E8" t="n">
         <v>296</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9905123339658444</v>
+        <v>0.994328922495274</v>
       </c>
       <c r="C9" t="n">
-        <v>0.981203007518797</v>
+        <v>0.9887218045112782</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9858356940509915</v>
+        <v>0.9915174363807728</v>
       </c>
       <c r="E9" t="n">
         <v>532</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9597523219814241</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9538461538461539</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.95679012345679</v>
+        <v>0.9606299212598426</v>
       </c>
       <c r="E10" t="n">
         <v>325</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9779614325068871</v>
+        <v>0.9402597402597402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9699453551912568</v>
+        <v>0.9890710382513661</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9739368998628258</v>
+        <v>0.9640479360852195</v>
       </c>
       <c r="E11" t="n">
         <v>366</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9686274509803922</v>
+        <v>0.9878542510121457</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9762845849802372</v>
+        <v>0.9644268774703557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9724409448818898</v>
+        <v>0.976</v>
       </c>
       <c r="E12" t="n">
         <v>253</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9921259842519685</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="C13" t="n">
         <v>0.9960474308300395</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9940828402366864</v>
+        <v>0.9921259842519685</v>
       </c>
       <c r="E13" t="n">
         <v>253</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D14" t="n">
-        <v>0.958904109589041</v>
+        <v>0.954954954954955</v>
       </c>
       <c r="E14" t="n">
         <v>114</v>
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9970149253731343</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="C15" t="n">
         <v>0.9881656804733728</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9925705794947994</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="E15" t="n">
         <v>338</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9924242424242424</v>
+        <v>0.992503748125937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9879336349924586</v>
+        <v>0.9984917043740573</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9901738473167044</v>
+        <v>0.9954887218045113</v>
       </c>
       <c r="E16" t="n">
         <v>663</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9434697855750487</v>
+        <v>0.9585798816568047</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9897750511247444</v>
+        <v>0.9938650306748467</v>
       </c>
       <c r="D17" t="n">
-        <v>0.966067864271457</v>
+        <v>0.9759036144578314</v>
       </c>
       <c r="E17" t="n">
         <v>489</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="E18" t="n">
         <v>22</v>
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9825581395348837</v>
+        <v>0.983941605839416</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9782923299565847</v>
+        <v>0.975397973950796</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9804205946337926</v>
+        <v>0.9796511627906976</v>
       </c>
       <c r="E20" t="n">
         <v>691</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9345417925478349</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9861849096705633</v>
+        <v>0.9883103081827843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9596690796277145</v>
+        <v>0.9753539590980599</v>
       </c>
       <c r="E21" t="n">
         <v>941</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.950561797752809</v>
+        <v>0.9587155963302753</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9646522234891677</v>
+        <v>0.9631336405529954</v>
       </c>
       <c r="E22" t="n">
         <v>432</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9600977198697068</v>
+        <v>0.971240755957272</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9890939597315436</v>
+        <v>0.9916107382550335</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9743801652892562</v>
+        <v>0.9813200498132005</v>
       </c>
       <c r="E23" t="n">
         <v>1192</v>
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9019607843137255</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9435897435897437</v>
+        <v>0.9494949494949494</v>
       </c>
       <c r="E24" t="n">
         <v>102</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9828431372549019</v>
+        <v>0.9868637110016421</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9983402489626556</v>
+        <v>0.9975103734439834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9905310827501028</v>
+        <v>0.9921584812216261</v>
       </c>
       <c r="E25" t="n">
         <v>1205</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9760119940029985</v>
+        <v>0.9717261904761905</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9658753709198813</v>
+        <v>0.9688427299703264</v>
       </c>
       <c r="D26" t="n">
-        <v>0.970917225950783</v>
+        <v>0.9702823179791976</v>
       </c>
       <c r="E26" t="n">
         <v>674</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9837133550488599</v>
+        <v>0.993485342019544</v>
       </c>
       <c r="C27" t="n">
-        <v>0.967948717948718</v>
+        <v>0.9775641025641025</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9757673667205169</v>
+        <v>0.98546042003231</v>
       </c>
       <c r="E27" t="n">
         <v>312</v>
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9640718562874252</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8655913978494624</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9121813031161473</v>
+        <v>0.9680851063829788</v>
       </c>
       <c r="E28" t="n">
         <v>186</v>
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9854368932038835</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9759615384615385</v>
+        <v>0.983132530120482</v>
       </c>
       <c r="E29" t="n">
         <v>210</v>
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9947643979057592</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="C30" t="n">
         <v>0.9644670050761421</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9793814432989691</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="E30" t="n">
         <v>197</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9786324786324786</v>
+        <v>0.9790794979079498</v>
       </c>
       <c r="C31" t="n">
-        <v>0.950207468879668</v>
+        <v>0.970954356846473</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9642105263157895</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>482</v>
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.949238578680203</v>
+        <v>0.9946808510638298</v>
       </c>
       <c r="C32" t="n">
         <v>0.9689119170984456</v>
       </c>
       <c r="D32" t="n">
-        <v>0.958974358974359</v>
+        <v>0.9816272965879265</v>
       </c>
       <c r="E32" t="n">
         <v>193</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9716042821349935</v>
+        <v>0.9760838205147673</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9716042821349935</v>
+        <v>0.9760838205147673</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9716042821349935</v>
+        <v>0.9760838205147673</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9716042821349935</v>
+        <v>0.9760838205147673</v>
       </c>
     </row>
     <row r="34">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9772293899550166</v>
+        <v>0.975332644310129</v>
       </c>
       <c r="C34" t="n">
-        <v>0.957981316681105</v>
+        <v>0.9651380645947656</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9669703988049951</v>
+        <v>0.969498468139974</v>
       </c>
       <c r="E34" t="n">
         <v>13171</v>
@@ -1089,13 +1089,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9719889995734248</v>
+        <v>0.9761686121186263</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9716042821349935</v>
+        <v>0.9760838205147673</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9714344740633124</v>
+        <v>0.975765365464492</v>
       </c>
       <c r="E35" t="n">
         <v>13171</v>
